--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -31,7 +31,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="Q7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="S7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Y7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH7" authorId="0">
+    <comment ref="AG7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1005,6 +1005,119 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1041,184 +1154,122 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1246,57 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2629,55 +2629,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="120" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="129" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="111" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="138" t="str">
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="112" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="104" t="str">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="78" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="106"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="80"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2685,51 +2685,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="111" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="117" t="str">
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="91" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="104" t="str">
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="78" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="80"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2737,43 +2737,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="140"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="106"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="80"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2810,1020 +2810,1176 @@
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="107" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="110" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="107" t="s">
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="107" t="s">
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="108"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="82"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="100"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="137"/>
+      <c r="AH8" s="137"/>
+      <c r="AI8" s="138"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="75"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="86"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="124"/>
+      <c r="AH9" s="124"/>
+      <c r="AI9" s="125"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="75"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="86"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="125"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="75"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="86"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="125"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="75"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="86"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="125"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="75"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="86"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="125"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="75"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="86"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="125"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="75"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="86"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="125"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="75"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="86"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="125"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="75"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="88"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="86"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="125"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="75"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="86"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="125"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="75"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="86"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="125"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="75"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="86"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="125"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="86"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="125"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="75"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="86"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="125"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="75"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="86"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="125"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="75"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="86"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="125"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="75"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="86"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="125"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="75"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="86"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="123"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="125"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="75"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
-      <c r="AI27" s="86"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="123"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="125"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="75"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="89"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="86"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="125"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="75"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="86"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="125"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="75"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="86"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="123"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="125"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="75"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="85"/>
-      <c r="AH31" s="85"/>
-      <c r="AI31" s="86"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="125"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="89"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="86"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="125"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="75"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="89"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="85"/>
-      <c r="AH33" s="85"/>
-      <c r="AI33" s="86"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="125"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -3847,162 +4003,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -4159,163 +4159,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="120" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="129" t="str">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="103" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="138" t="str">
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="145" t="str">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="138" t="str">
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="138" t="str">
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="140"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5778,14 +5778,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5795,6 +5787,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -5821,163 +5821,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="166" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="151" t="str">
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="111" t="s">
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="138" t="str">
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="145" t="str">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="147"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="111" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="138" t="str">
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="145" t="str">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="147"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="138" t="str">
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="140"/>
-      <c r="AG3" s="145" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="147"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6033,1660 +6033,1639 @@
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="175" t="s">
+      <c r="B7" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="C7" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160" t="s">
+      <c r="D7" s="161"/>
+      <c r="E7" s="160" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="164"/>
       <c r="G7" s="164"/>
       <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="160" t="s">
+      <c r="I7" s="161"/>
+      <c r="J7" s="160" t="s">
         <v>13</v>
       </c>
+      <c r="K7" s="164"/>
       <c r="L7" s="164"/>
       <c r="M7" s="164"/>
       <c r="N7" s="164"/>
       <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="160" t="s">
+      <c r="P7" s="161"/>
+      <c r="Q7" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="161"/>
-      <c r="T7" s="160" t="s">
+      <c r="R7" s="161"/>
+      <c r="S7" s="160" t="s">
         <v>12</v>
       </c>
+      <c r="T7" s="164"/>
       <c r="U7" s="164"/>
       <c r="V7" s="164"/>
       <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="160" t="s">
+      <c r="X7" s="161"/>
+      <c r="Y7" s="160" t="s">
         <v>14</v>
       </c>
+      <c r="Z7" s="164"/>
       <c r="AA7" s="164"/>
       <c r="AB7" s="164"/>
       <c r="AC7" s="164"/>
       <c r="AD7" s="164"/>
       <c r="AE7" s="164"/>
-      <c r="AF7" s="164"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="160" t="s">
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="161"/>
-      <c r="AK7" s="160" t="s">
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="160" t="s">
         <v>15</v>
       </c>
+      <c r="AK7" s="164"/>
       <c r="AL7" s="164"/>
       <c r="AM7" s="164"/>
       <c r="AN7" s="164"/>
-      <c r="AO7" s="164"/>
-      <c r="AP7" s="161"/>
+      <c r="AO7" s="161"/>
     </row>
     <row r="8" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="176"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="162"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="165"/>
       <c r="G8" s="165"/>
       <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="165"/>
       <c r="L8" s="165"/>
       <c r="M8" s="165"/>
       <c r="N8" s="165"/>
       <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="162"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="165"/>
       <c r="U8" s="165"/>
       <c r="V8" s="165"/>
       <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="162"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="165"/>
       <c r="AA8" s="165"/>
       <c r="AB8" s="165"/>
       <c r="AC8" s="165"/>
       <c r="AD8" s="165"/>
       <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="163"/>
-      <c r="AK8" s="162"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="165"/>
       <c r="AL8" s="165"/>
       <c r="AM8" s="165"/>
       <c r="AN8" s="165"/>
-      <c r="AO8" s="165"/>
-      <c r="AP8" s="163"/>
+      <c r="AO8" s="163"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="75"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
       <c r="I9" s="150"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="150"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
       <c r="X9" s="150"/>
-      <c r="Y9" s="149"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
       <c r="AF9" s="150"/>
-      <c r="AG9" s="149"/>
-      <c r="AH9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="149"/>
       <c r="AI9" s="150"/>
-      <c r="AJ9" s="149"/>
-      <c r="AK9" s="148"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="150"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="149"/>
+      <c r="AL9" s="149"/>
+      <c r="AM9" s="149"/>
+      <c r="AN9" s="149"/>
       <c r="AO9" s="150"/>
-      <c r="AP9" s="149"/>
     </row>
     <row r="10" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="75"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
       <c r="I10" s="150"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
       <c r="P10" s="150"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
       <c r="X10" s="150"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
       <c r="AF10" s="150"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="149"/>
       <c r="AI10" s="150"/>
-      <c r="AJ10" s="149"/>
-      <c r="AK10" s="148"/>
-      <c r="AL10" s="150"/>
-      <c r="AM10" s="150"/>
-      <c r="AN10" s="150"/>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="149"/>
+      <c r="AL10" s="149"/>
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="149"/>
       <c r="AO10" s="150"/>
-      <c r="AP10" s="149"/>
     </row>
     <row r="11" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="75"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
       <c r="I11" s="150"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
       <c r="P11" s="150"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="150"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
       <c r="X11" s="150"/>
-      <c r="Y11" s="149"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="149"/>
       <c r="AF11" s="150"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="149"/>
       <c r="AI11" s="150"/>
-      <c r="AJ11" s="149"/>
-      <c r="AK11" s="148"/>
-      <c r="AL11" s="150"/>
-      <c r="AM11" s="150"/>
-      <c r="AN11" s="150"/>
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="149"/>
+      <c r="AL11" s="149"/>
+      <c r="AM11" s="149"/>
+      <c r="AN11" s="149"/>
       <c r="AO11" s="150"/>
-      <c r="AP11" s="149"/>
     </row>
     <row r="12" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="75"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
       <c r="I12" s="150"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
       <c r="P12" s="150"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
       <c r="X12" s="150"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
       <c r="AF12" s="150"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="148"/>
+      <c r="AG12" s="148"/>
+      <c r="AH12" s="149"/>
       <c r="AI12" s="150"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="148"/>
-      <c r="AL12" s="150"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="150"/>
+      <c r="AJ12" s="148"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="149"/>
+      <c r="AN12" s="149"/>
       <c r="AO12" s="150"/>
-      <c r="AP12" s="149"/>
     </row>
     <row r="13" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="75"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
       <c r="I13" s="150"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
       <c r="P13" s="150"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="150"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
       <c r="X13" s="150"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="150"/>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="150"/>
-      <c r="AE13" s="150"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
       <c r="AF13" s="150"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="148"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="149"/>
       <c r="AI13" s="150"/>
-      <c r="AJ13" s="149"/>
-      <c r="AK13" s="148"/>
-      <c r="AL13" s="150"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="150"/>
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="149"/>
+      <c r="AN13" s="149"/>
       <c r="AO13" s="150"/>
-      <c r="AP13" s="149"/>
     </row>
     <row r="14" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="75"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
       <c r="I14" s="150"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
       <c r="P14" s="150"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="150"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
       <c r="X14" s="150"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="150"/>
-      <c r="AC14" s="150"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="150"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
       <c r="AF14" s="150"/>
-      <c r="AG14" s="149"/>
-      <c r="AH14" s="148"/>
+      <c r="AG14" s="148"/>
+      <c r="AH14" s="149"/>
       <c r="AI14" s="150"/>
-      <c r="AJ14" s="149"/>
-      <c r="AK14" s="148"/>
-      <c r="AL14" s="150"/>
-      <c r="AM14" s="150"/>
-      <c r="AN14" s="150"/>
+      <c r="AJ14" s="148"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
+      <c r="AM14" s="149"/>
+      <c r="AN14" s="149"/>
       <c r="AO14" s="150"/>
-      <c r="AP14" s="149"/>
     </row>
     <row r="15" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="75"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="150"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
       <c r="P15" s="150"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
       <c r="X15" s="150"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="150"/>
-      <c r="AC15" s="150"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="150"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
       <c r="AF15" s="150"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="148"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="149"/>
       <c r="AI15" s="150"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="150"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="150"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="149"/>
+      <c r="AN15" s="149"/>
       <c r="AO15" s="150"/>
-      <c r="AP15" s="149"/>
     </row>
     <row r="16" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="75"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
       <c r="I16" s="150"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
       <c r="P16" s="150"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
       <c r="X16" s="150"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
       <c r="AF16" s="150"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="148"/>
+      <c r="AG16" s="148"/>
+      <c r="AH16" s="149"/>
       <c r="AI16" s="150"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="148"/>
-      <c r="AL16" s="150"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="150"/>
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="149"/>
+      <c r="AN16" s="149"/>
       <c r="AO16" s="150"/>
-      <c r="AP16" s="149"/>
-    </row>
-    <row r="17" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="75"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
+    </row>
+    <row r="17" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="75"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
       <c r="I17" s="150"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
       <c r="P17" s="150"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="149"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="150"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
       <c r="X17" s="150"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="150"/>
-      <c r="AC17" s="150"/>
-      <c r="AD17" s="150"/>
-      <c r="AE17" s="150"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
       <c r="AF17" s="150"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="148"/>
+      <c r="AG17" s="148"/>
+      <c r="AH17" s="149"/>
       <c r="AI17" s="150"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="148"/>
-      <c r="AL17" s="150"/>
-      <c r="AM17" s="150"/>
-      <c r="AN17" s="150"/>
+      <c r="AJ17" s="148"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="149"/>
+      <c r="AN17" s="149"/>
       <c r="AO17" s="150"/>
-      <c r="AP17" s="149"/>
-    </row>
-    <row r="18" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="75"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
+    </row>
+    <row r="18" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="75"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
       <c r="I18" s="150"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
       <c r="P18" s="150"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="150"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
       <c r="X18" s="150"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="150"/>
-      <c r="AB18" s="150"/>
-      <c r="AC18" s="150"/>
-      <c r="AD18" s="150"/>
-      <c r="AE18" s="150"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
       <c r="AF18" s="150"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="148"/>
+      <c r="AG18" s="148"/>
+      <c r="AH18" s="149"/>
       <c r="AI18" s="150"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="148"/>
-      <c r="AL18" s="150"/>
-      <c r="AM18" s="150"/>
-      <c r="AN18" s="150"/>
+      <c r="AJ18" s="148"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="149"/>
+      <c r="AN18" s="149"/>
       <c r="AO18" s="150"/>
-      <c r="AP18" s="149"/>
-    </row>
-    <row r="19" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="75"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
+    </row>
+    <row r="19" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="75"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
       <c r="I19" s="150"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
       <c r="P19" s="150"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
       <c r="X19" s="150"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="150"/>
-      <c r="AD19" s="150"/>
-      <c r="AE19" s="150"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
       <c r="AF19" s="150"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="148"/>
+      <c r="AG19" s="148"/>
+      <c r="AH19" s="149"/>
       <c r="AI19" s="150"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="148"/>
-      <c r="AL19" s="150"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="150"/>
+      <c r="AJ19" s="148"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="149"/>
+      <c r="AN19" s="149"/>
       <c r="AO19" s="150"/>
-      <c r="AP19" s="149"/>
-    </row>
-    <row r="20" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="75"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
+    </row>
+    <row r="20" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="75"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
       <c r="I20" s="150"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
       <c r="P20" s="150"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="150"/>
-      <c r="W20" s="150"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
       <c r="X20" s="150"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="150"/>
-      <c r="AB20" s="150"/>
-      <c r="AC20" s="150"/>
-      <c r="AD20" s="150"/>
-      <c r="AE20" s="150"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
       <c r="AF20" s="150"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="148"/>
+      <c r="AG20" s="148"/>
+      <c r="AH20" s="149"/>
       <c r="AI20" s="150"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="148"/>
-      <c r="AL20" s="150"/>
-      <c r="AM20" s="150"/>
-      <c r="AN20" s="150"/>
+      <c r="AJ20" s="148"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="149"/>
+      <c r="AN20" s="149"/>
       <c r="AO20" s="150"/>
-      <c r="AP20" s="149"/>
-    </row>
-    <row r="21" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="75"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
+    </row>
+    <row r="21" spans="1:41" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="75"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
       <c r="I21" s="150"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
       <c r="P21" s="150"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="149"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="150"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="150"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
       <c r="X21" s="150"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="150"/>
-      <c r="AB21" s="150"/>
-      <c r="AC21" s="150"/>
-      <c r="AD21" s="150"/>
-      <c r="AE21" s="150"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
       <c r="AF21" s="150"/>
-      <c r="AG21" s="149"/>
-      <c r="AH21" s="148"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="149"/>
       <c r="AI21" s="150"/>
-      <c r="AJ21" s="149"/>
-      <c r="AK21" s="148"/>
-      <c r="AL21" s="150"/>
-      <c r="AM21" s="150"/>
-      <c r="AN21" s="150"/>
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="149"/>
+      <c r="AN21" s="149"/>
       <c r="AO21" s="150"/>
-      <c r="AP21" s="149"/>
-    </row>
-    <row r="22" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="75"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
+    </row>
+    <row r="22" spans="1:41" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="75"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
       <c r="I22" s="150"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
       <c r="P22" s="150"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="150"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="150"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
       <c r="X22" s="150"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="150"/>
-      <c r="AB22" s="150"/>
-      <c r="AC22" s="150"/>
-      <c r="AD22" s="150"/>
-      <c r="AE22" s="150"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
       <c r="AF22" s="150"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="149"/>
       <c r="AI22" s="150"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="148"/>
-      <c r="AL22" s="150"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="150"/>
+      <c r="AJ22" s="148"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="149"/>
+      <c r="AN22" s="149"/>
       <c r="AO22" s="150"/>
-      <c r="AP22" s="149"/>
-    </row>
-    <row r="23" spans="1:42" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="75"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
+    </row>
+    <row r="23" spans="1:41" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="75"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
       <c r="I23" s="150"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
       <c r="P23" s="150"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="150"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
       <c r="X23" s="150"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="150"/>
-      <c r="AD23" s="150"/>
-      <c r="AE23" s="150"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
       <c r="AF23" s="150"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="148"/>
+      <c r="AG23" s="148"/>
+      <c r="AH23" s="149"/>
       <c r="AI23" s="150"/>
-      <c r="AJ23" s="149"/>
-      <c r="AK23" s="148"/>
-      <c r="AL23" s="150"/>
-      <c r="AM23" s="150"/>
-      <c r="AN23" s="150"/>
+      <c r="AJ23" s="148"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="149"/>
+      <c r="AN23" s="149"/>
       <c r="AO23" s="150"/>
-      <c r="AP23" s="149"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
       <c r="I24" s="150"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
       <c r="P24" s="150"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="150"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="150"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
       <c r="X24" s="150"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="150"/>
-      <c r="AB24" s="150"/>
-      <c r="AC24" s="150"/>
-      <c r="AD24" s="150"/>
-      <c r="AE24" s="150"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
       <c r="AF24" s="150"/>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="148"/>
+      <c r="AG24" s="148"/>
+      <c r="AH24" s="149"/>
       <c r="AI24" s="150"/>
-      <c r="AJ24" s="149"/>
-      <c r="AK24" s="148"/>
-      <c r="AL24" s="150"/>
-      <c r="AM24" s="150"/>
-      <c r="AN24" s="150"/>
+      <c r="AJ24" s="148"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="149"/>
+      <c r="AN24" s="149"/>
       <c r="AO24" s="150"/>
-      <c r="AP24" s="149"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
       <c r="I25" s="150"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
       <c r="P25" s="150"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="150"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
       <c r="X25" s="150"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="150"/>
-      <c r="AB25" s="150"/>
-      <c r="AC25" s="150"/>
-      <c r="AD25" s="150"/>
-      <c r="AE25" s="150"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
       <c r="AF25" s="150"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="148"/>
+      <c r="AG25" s="148"/>
+      <c r="AH25" s="149"/>
       <c r="AI25" s="150"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="148"/>
-      <c r="AL25" s="150"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="150"/>
+      <c r="AJ25" s="148"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="149"/>
+      <c r="AN25" s="149"/>
       <c r="AO25" s="150"/>
-      <c r="AP25" s="149"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
       <c r="I26" s="150"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="149"/>
       <c r="P26" s="150"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="149"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="150"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="150"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="150"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
       <c r="X26" s="150"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="150"/>
-      <c r="AB26" s="150"/>
-      <c r="AC26" s="150"/>
-      <c r="AD26" s="150"/>
-      <c r="AE26" s="150"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
       <c r="AF26" s="150"/>
-      <c r="AG26" s="149"/>
-      <c r="AH26" s="148"/>
+      <c r="AG26" s="148"/>
+      <c r="AH26" s="149"/>
       <c r="AI26" s="150"/>
-      <c r="AJ26" s="149"/>
-      <c r="AK26" s="148"/>
-      <c r="AL26" s="150"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="150"/>
+      <c r="AJ26" s="148"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="149"/>
+      <c r="AN26" s="149"/>
       <c r="AO26" s="150"/>
-      <c r="AP26" s="149"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
       <c r="I27" s="150"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="150"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
       <c r="P27" s="150"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="149"/>
+      <c r="W27" s="149"/>
       <c r="X27" s="150"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="150"/>
-      <c r="AB27" s="150"/>
-      <c r="AC27" s="150"/>
-      <c r="AD27" s="150"/>
-      <c r="AE27" s="150"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
       <c r="AF27" s="150"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="148"/>
+      <c r="AG27" s="148"/>
+      <c r="AH27" s="149"/>
       <c r="AI27" s="150"/>
-      <c r="AJ27" s="149"/>
-      <c r="AK27" s="148"/>
-      <c r="AL27" s="150"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="150"/>
+      <c r="AJ27" s="148"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="149"/>
+      <c r="AN27" s="149"/>
       <c r="AO27" s="150"/>
-      <c r="AP27" s="149"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
       <c r="I28" s="150"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
       <c r="P28" s="150"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="149"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="150"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="150"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
       <c r="X28" s="150"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="150"/>
-      <c r="AB28" s="150"/>
-      <c r="AC28" s="150"/>
-      <c r="AD28" s="150"/>
-      <c r="AE28" s="150"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
       <c r="AF28" s="150"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="148"/>
+      <c r="AG28" s="148"/>
+      <c r="AH28" s="149"/>
       <c r="AI28" s="150"/>
-      <c r="AJ28" s="149"/>
-      <c r="AK28" s="148"/>
-      <c r="AL28" s="150"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="150"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="149"/>
+      <c r="AN28" s="149"/>
       <c r="AO28" s="150"/>
-      <c r="AP28" s="149"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
       <c r="I29" s="150"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
       <c r="P29" s="150"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="150"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="150"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="149"/>
       <c r="X29" s="150"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="150"/>
-      <c r="AB29" s="150"/>
-      <c r="AC29" s="150"/>
-      <c r="AD29" s="150"/>
-      <c r="AE29" s="150"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
       <c r="AF29" s="150"/>
-      <c r="AG29" s="149"/>
-      <c r="AH29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="149"/>
       <c r="AI29" s="150"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="148"/>
-      <c r="AL29" s="150"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="150"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="149"/>
+      <c r="AN29" s="149"/>
       <c r="AO29" s="150"/>
-      <c r="AP29" s="149"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
       <c r="I30" s="150"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
       <c r="P30" s="150"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="150"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="150"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
       <c r="X30" s="150"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
       <c r="AF30" s="150"/>
-      <c r="AG30" s="149"/>
-      <c r="AH30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="149"/>
       <c r="AI30" s="150"/>
-      <c r="AJ30" s="149"/>
-      <c r="AK30" s="148"/>
-      <c r="AL30" s="150"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="150"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="149"/>
+      <c r="AN30" s="149"/>
       <c r="AO30" s="150"/>
-      <c r="AP30" s="149"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
       <c r="I31" s="150"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
       <c r="P31" s="150"/>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="149"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="150"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
       <c r="X31" s="150"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="150"/>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="150"/>
-      <c r="AD31" s="150"/>
-      <c r="AE31" s="150"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
       <c r="AF31" s="150"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="149"/>
       <c r="AI31" s="150"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="148"/>
-      <c r="AL31" s="150"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="150"/>
+      <c r="AJ31" s="148"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="149"/>
+      <c r="AN31" s="149"/>
       <c r="AO31" s="150"/>
-      <c r="AP31" s="149"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
       <c r="I32" s="150"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
       <c r="P32" s="150"/>
-      <c r="Q32" s="149"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="150"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="150"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
       <c r="X32" s="150"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="150"/>
-      <c r="AB32" s="150"/>
-      <c r="AC32" s="150"/>
-      <c r="AD32" s="150"/>
-      <c r="AE32" s="150"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
       <c r="AF32" s="150"/>
-      <c r="AG32" s="149"/>
-      <c r="AH32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="149"/>
       <c r="AI32" s="150"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="148"/>
-      <c r="AL32" s="150"/>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="150"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="149"/>
+      <c r="AN32" s="149"/>
       <c r="AO32" s="150"/>
-      <c r="AP32" s="149"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
       <c r="I33" s="150"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
       <c r="P33" s="150"/>
-      <c r="Q33" s="149"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="150"/>
-      <c r="V33" s="150"/>
-      <c r="W33" s="150"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
       <c r="X33" s="150"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="150"/>
-      <c r="AB33" s="150"/>
-      <c r="AC33" s="150"/>
-      <c r="AD33" s="150"/>
-      <c r="AE33" s="150"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
       <c r="AF33" s="150"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="148"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="149"/>
       <c r="AI33" s="150"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="148"/>
-      <c r="AL33" s="150"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="150"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="149"/>
+      <c r="AN33" s="149"/>
       <c r="AO33" s="150"/>
-      <c r="AP33" s="149"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
       <c r="I34" s="150"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
       <c r="P34" s="150"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="148"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="150"/>
-      <c r="V34" s="150"/>
-      <c r="W34" s="150"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="150"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="149"/>
+      <c r="W34" s="149"/>
       <c r="X34" s="150"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="150"/>
-      <c r="AB34" s="150"/>
-      <c r="AC34" s="150"/>
-      <c r="AD34" s="150"/>
-      <c r="AE34" s="150"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
       <c r="AF34" s="150"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="149"/>
       <c r="AI34" s="150"/>
-      <c r="AJ34" s="149"/>
-      <c r="AK34" s="148"/>
-      <c r="AL34" s="150"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="150"/>
+      <c r="AJ34" s="148"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="149"/>
+      <c r="AN34" s="149"/>
       <c r="AO34" s="150"/>
-      <c r="AP34" s="149"/>
     </row>
     <row r="35" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
       <c r="I35" s="150"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
       <c r="P35" s="150"/>
-      <c r="Q35" s="149"/>
-      <c r="R35" s="148"/>
-      <c r="S35" s="149"/>
-      <c r="T35" s="148"/>
-      <c r="U35" s="150"/>
-      <c r="V35" s="150"/>
-      <c r="W35" s="150"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="150"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="149"/>
+      <c r="V35" s="149"/>
+      <c r="W35" s="149"/>
       <c r="X35" s="150"/>
-      <c r="Y35" s="149"/>
-      <c r="Z35" s="148"/>
-      <c r="AA35" s="150"/>
-      <c r="AB35" s="150"/>
-      <c r="AC35" s="150"/>
-      <c r="AD35" s="150"/>
-      <c r="AE35" s="150"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="149"/>
+      <c r="AA35" s="149"/>
+      <c r="AB35" s="149"/>
+      <c r="AC35" s="149"/>
+      <c r="AD35" s="149"/>
+      <c r="AE35" s="149"/>
       <c r="AF35" s="150"/>
-      <c r="AG35" s="149"/>
-      <c r="AH35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="149"/>
       <c r="AI35" s="150"/>
-      <c r="AJ35" s="149"/>
-      <c r="AK35" s="148"/>
-      <c r="AL35" s="150"/>
-      <c r="AM35" s="150"/>
-      <c r="AN35" s="150"/>
+      <c r="AJ35" s="148"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="149"/>
+      <c r="AM35" s="149"/>
+      <c r="AN35" s="149"/>
       <c r="AO35" s="150"/>
-      <c r="AP35" s="149"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
       <c r="I36" s="150"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
       <c r="P36" s="150"/>
-      <c r="Q36" s="149"/>
-      <c r="R36" s="148"/>
-      <c r="S36" s="149"/>
-      <c r="T36" s="148"/>
-      <c r="U36" s="150"/>
-      <c r="V36" s="150"/>
-      <c r="W36" s="150"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
       <c r="X36" s="150"/>
-      <c r="Y36" s="149"/>
-      <c r="Z36" s="148"/>
-      <c r="AA36" s="150"/>
-      <c r="AB36" s="150"/>
-      <c r="AC36" s="150"/>
-      <c r="AD36" s="150"/>
-      <c r="AE36" s="150"/>
+      <c r="Y36" s="148"/>
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="149"/>
+      <c r="AC36" s="149"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="149"/>
       <c r="AF36" s="150"/>
-      <c r="AG36" s="149"/>
-      <c r="AH36" s="148"/>
+      <c r="AG36" s="148"/>
+      <c r="AH36" s="149"/>
       <c r="AI36" s="150"/>
-      <c r="AJ36" s="149"/>
-      <c r="AK36" s="148"/>
-      <c r="AL36" s="150"/>
-      <c r="AM36" s="150"/>
-      <c r="AN36" s="150"/>
+      <c r="AJ36" s="148"/>
+      <c r="AK36" s="149"/>
+      <c r="AL36" s="149"/>
+      <c r="AM36" s="149"/>
+      <c r="AN36" s="149"/>
       <c r="AO36" s="150"/>
-      <c r="AP36" s="149"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
       <c r="I37" s="150"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="150"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
       <c r="P37" s="150"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="149"/>
-      <c r="T37" s="148"/>
-      <c r="U37" s="150"/>
-      <c r="V37" s="150"/>
-      <c r="W37" s="150"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
       <c r="X37" s="150"/>
-      <c r="Y37" s="149"/>
-      <c r="Z37" s="148"/>
-      <c r="AA37" s="150"/>
-      <c r="AB37" s="150"/>
-      <c r="AC37" s="150"/>
-      <c r="AD37" s="150"/>
-      <c r="AE37" s="150"/>
+      <c r="Y37" s="148"/>
+      <c r="Z37" s="149"/>
+      <c r="AA37" s="149"/>
+      <c r="AB37" s="149"/>
+      <c r="AC37" s="149"/>
+      <c r="AD37" s="149"/>
+      <c r="AE37" s="149"/>
       <c r="AF37" s="150"/>
-      <c r="AG37" s="149"/>
-      <c r="AH37" s="148"/>
+      <c r="AG37" s="148"/>
+      <c r="AH37" s="149"/>
       <c r="AI37" s="150"/>
-      <c r="AJ37" s="149"/>
-      <c r="AK37" s="148"/>
-      <c r="AL37" s="150"/>
-      <c r="AM37" s="150"/>
-      <c r="AN37" s="150"/>
+      <c r="AJ37" s="148"/>
+      <c r="AK37" s="149"/>
+      <c r="AL37" s="149"/>
+      <c r="AM37" s="149"/>
+      <c r="AN37" s="149"/>
       <c r="AO37" s="150"/>
-      <c r="AP37" s="149"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
       <c r="I38" s="150"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="150"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
       <c r="P38" s="150"/>
-      <c r="Q38" s="149"/>
-      <c r="R38" s="148"/>
-      <c r="S38" s="149"/>
-      <c r="T38" s="148"/>
-      <c r="U38" s="150"/>
-      <c r="V38" s="150"/>
-      <c r="W38" s="150"/>
+      <c r="Q38" s="148"/>
+      <c r="R38" s="150"/>
+      <c r="S38" s="148"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
       <c r="X38" s="150"/>
-      <c r="Y38" s="149"/>
-      <c r="Z38" s="148"/>
-      <c r="AA38" s="150"/>
-      <c r="AB38" s="150"/>
-      <c r="AC38" s="150"/>
-      <c r="AD38" s="150"/>
-      <c r="AE38" s="150"/>
+      <c r="Y38" s="148"/>
+      <c r="Z38" s="149"/>
+      <c r="AA38" s="149"/>
+      <c r="AB38" s="149"/>
+      <c r="AC38" s="149"/>
+      <c r="AD38" s="149"/>
+      <c r="AE38" s="149"/>
       <c r="AF38" s="150"/>
-      <c r="AG38" s="149"/>
-      <c r="AH38" s="148"/>
+      <c r="AG38" s="148"/>
+      <c r="AH38" s="149"/>
       <c r="AI38" s="150"/>
-      <c r="AJ38" s="149"/>
-      <c r="AK38" s="148"/>
-      <c r="AL38" s="150"/>
-      <c r="AM38" s="150"/>
-      <c r="AN38" s="150"/>
+      <c r="AJ38" s="148"/>
+      <c r="AK38" s="149"/>
+      <c r="AL38" s="149"/>
+      <c r="AM38" s="149"/>
+      <c r="AN38" s="149"/>
       <c r="AO38" s="150"/>
-      <c r="AP38" s="149"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
       <c r="I39" s="150"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="149"/>
       <c r="P39" s="150"/>
-      <c r="Q39" s="149"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="149"/>
-      <c r="T39" s="148"/>
-      <c r="U39" s="150"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="150"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="148"/>
+      <c r="T39" s="149"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
       <c r="X39" s="150"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="150"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="150"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="149"/>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="149"/>
+      <c r="AD39" s="149"/>
+      <c r="AE39" s="149"/>
       <c r="AF39" s="150"/>
-      <c r="AG39" s="149"/>
-      <c r="AH39" s="148"/>
+      <c r="AG39" s="148"/>
+      <c r="AH39" s="149"/>
       <c r="AI39" s="150"/>
-      <c r="AJ39" s="149"/>
-      <c r="AK39" s="148"/>
-      <c r="AL39" s="150"/>
-      <c r="AM39" s="150"/>
-      <c r="AN39" s="150"/>
+      <c r="AJ39" s="148"/>
+      <c r="AK39" s="149"/>
+      <c r="AL39" s="149"/>
+      <c r="AM39" s="149"/>
+      <c r="AN39" s="149"/>
       <c r="AO39" s="150"/>
-      <c r="AP39" s="149"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
       <c r="I40" s="150"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="150"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="149"/>
       <c r="P40" s="150"/>
-      <c r="Q40" s="149"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="149"/>
-      <c r="T40" s="148"/>
-      <c r="U40" s="150"/>
-      <c r="V40" s="150"/>
-      <c r="W40" s="150"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="148"/>
+      <c r="T40" s="149"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="149"/>
+      <c r="W40" s="149"/>
       <c r="X40" s="150"/>
-      <c r="Y40" s="149"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="150"/>
-      <c r="AB40" s="150"/>
-      <c r="AC40" s="150"/>
-      <c r="AD40" s="150"/>
-      <c r="AE40" s="150"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="149"/>
+      <c r="AA40" s="149"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="149"/>
+      <c r="AD40" s="149"/>
+      <c r="AE40" s="149"/>
       <c r="AF40" s="150"/>
-      <c r="AG40" s="149"/>
-      <c r="AH40" s="148"/>
+      <c r="AG40" s="148"/>
+      <c r="AH40" s="149"/>
       <c r="AI40" s="150"/>
-      <c r="AJ40" s="149"/>
-      <c r="AK40" s="148"/>
-      <c r="AL40" s="150"/>
-      <c r="AM40" s="150"/>
-      <c r="AN40" s="150"/>
+      <c r="AJ40" s="148"/>
+      <c r="AK40" s="149"/>
+      <c r="AL40" s="149"/>
+      <c r="AM40" s="149"/>
+      <c r="AN40" s="149"/>
       <c r="AO40" s="150"/>
-      <c r="AP40" s="149"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
       <c r="I41" s="150"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
-      <c r="N41" s="150"/>
-      <c r="O41" s="150"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="149"/>
+      <c r="O41" s="149"/>
       <c r="P41" s="150"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="148"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="148"/>
-      <c r="U41" s="150"/>
-      <c r="V41" s="150"/>
-      <c r="W41" s="150"/>
+      <c r="Q41" s="148"/>
+      <c r="R41" s="150"/>
+      <c r="S41" s="148"/>
+      <c r="T41" s="149"/>
+      <c r="U41" s="149"/>
+      <c r="V41" s="149"/>
+      <c r="W41" s="149"/>
       <c r="X41" s="150"/>
-      <c r="Y41" s="149"/>
-      <c r="Z41" s="148"/>
-      <c r="AA41" s="150"/>
-      <c r="AB41" s="150"/>
-      <c r="AC41" s="150"/>
-      <c r="AD41" s="150"/>
-      <c r="AE41" s="150"/>
+      <c r="Y41" s="148"/>
+      <c r="Z41" s="149"/>
+      <c r="AA41" s="149"/>
+      <c r="AB41" s="149"/>
+      <c r="AC41" s="149"/>
+      <c r="AD41" s="149"/>
+      <c r="AE41" s="149"/>
       <c r="AF41" s="150"/>
-      <c r="AG41" s="149"/>
-      <c r="AH41" s="148"/>
+      <c r="AG41" s="148"/>
+      <c r="AH41" s="149"/>
       <c r="AI41" s="150"/>
-      <c r="AJ41" s="149"/>
-      <c r="AK41" s="148"/>
-      <c r="AL41" s="150"/>
-      <c r="AM41" s="150"/>
-      <c r="AN41" s="150"/>
+      <c r="AJ41" s="148"/>
+      <c r="AK41" s="149"/>
+      <c r="AL41" s="149"/>
+      <c r="AM41" s="149"/>
+      <c r="AN41" s="149"/>
       <c r="AO41" s="150"/>
-      <c r="AP41" s="149"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
       <c r="I42" s="150"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="150"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="149"/>
       <c r="P42" s="150"/>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="148"/>
-      <c r="S42" s="149"/>
-      <c r="T42" s="148"/>
-      <c r="U42" s="150"/>
-      <c r="V42" s="150"/>
-      <c r="W42" s="150"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="150"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="149"/>
+      <c r="W42" s="149"/>
       <c r="X42" s="150"/>
-      <c r="Y42" s="149"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="150"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="149"/>
+      <c r="AA42" s="149"/>
+      <c r="AB42" s="149"/>
+      <c r="AC42" s="149"/>
+      <c r="AD42" s="149"/>
+      <c r="AE42" s="149"/>
       <c r="AF42" s="150"/>
-      <c r="AG42" s="149"/>
-      <c r="AH42" s="148"/>
+      <c r="AG42" s="148"/>
+      <c r="AH42" s="149"/>
       <c r="AI42" s="150"/>
-      <c r="AJ42" s="149"/>
-      <c r="AK42" s="148"/>
-      <c r="AL42" s="150"/>
-      <c r="AM42" s="150"/>
-      <c r="AN42" s="150"/>
+      <c r="AJ42" s="148"/>
+      <c r="AK42" s="149"/>
+      <c r="AL42" s="149"/>
+      <c r="AM42" s="149"/>
+      <c r="AN42" s="149"/>
       <c r="AO42" s="150"/>
-      <c r="AP42" s="149"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
       <c r="I43" s="150"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="150"/>
-      <c r="O43" s="150"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="149"/>
       <c r="P43" s="150"/>
-      <c r="Q43" s="149"/>
-      <c r="R43" s="148"/>
-      <c r="S43" s="149"/>
-      <c r="T43" s="148"/>
-      <c r="U43" s="150"/>
-      <c r="V43" s="150"/>
-      <c r="W43" s="150"/>
+      <c r="Q43" s="148"/>
+      <c r="R43" s="150"/>
+      <c r="S43" s="148"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="149"/>
+      <c r="V43" s="149"/>
+      <c r="W43" s="149"/>
       <c r="X43" s="150"/>
-      <c r="Y43" s="149"/>
-      <c r="Z43" s="148"/>
-      <c r="AA43" s="150"/>
-      <c r="AB43" s="150"/>
-      <c r="AC43" s="150"/>
-      <c r="AD43" s="150"/>
-      <c r="AE43" s="150"/>
+      <c r="Y43" s="148"/>
+      <c r="Z43" s="149"/>
+      <c r="AA43" s="149"/>
+      <c r="AB43" s="149"/>
+      <c r="AC43" s="149"/>
+      <c r="AD43" s="149"/>
+      <c r="AE43" s="149"/>
       <c r="AF43" s="150"/>
-      <c r="AG43" s="149"/>
-      <c r="AH43" s="148"/>
+      <c r="AG43" s="148"/>
+      <c r="AH43" s="149"/>
       <c r="AI43" s="150"/>
-      <c r="AJ43" s="149"/>
-      <c r="AK43" s="148"/>
-      <c r="AL43" s="150"/>
-      <c r="AM43" s="150"/>
-      <c r="AN43" s="150"/>
+      <c r="AJ43" s="148"/>
+      <c r="AK43" s="149"/>
+      <c r="AL43" s="149"/>
+      <c r="AM43" s="149"/>
+      <c r="AN43" s="149"/>
       <c r="AO43" s="150"/>
-      <c r="AP43" s="149"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
       <c r="I44" s="150"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="150"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="149"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="149"/>
+      <c r="N44" s="149"/>
+      <c r="O44" s="149"/>
       <c r="P44" s="150"/>
-      <c r="Q44" s="149"/>
-      <c r="R44" s="148"/>
-      <c r="S44" s="149"/>
-      <c r="T44" s="148"/>
-      <c r="U44" s="150"/>
-      <c r="V44" s="150"/>
-      <c r="W44" s="150"/>
+      <c r="Q44" s="148"/>
+      <c r="R44" s="150"/>
+      <c r="S44" s="148"/>
+      <c r="T44" s="149"/>
+      <c r="U44" s="149"/>
+      <c r="V44" s="149"/>
+      <c r="W44" s="149"/>
       <c r="X44" s="150"/>
-      <c r="Y44" s="149"/>
-      <c r="Z44" s="148"/>
-      <c r="AA44" s="150"/>
-      <c r="AB44" s="150"/>
-      <c r="AC44" s="150"/>
-      <c r="AD44" s="150"/>
-      <c r="AE44" s="150"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="149"/>
+      <c r="AA44" s="149"/>
+      <c r="AB44" s="149"/>
+      <c r="AC44" s="149"/>
+      <c r="AD44" s="149"/>
+      <c r="AE44" s="149"/>
       <c r="AF44" s="150"/>
-      <c r="AG44" s="149"/>
-      <c r="AH44" s="148"/>
+      <c r="AG44" s="148"/>
+      <c r="AH44" s="149"/>
       <c r="AI44" s="150"/>
-      <c r="AJ44" s="149"/>
-      <c r="AK44" s="148"/>
-      <c r="AL44" s="150"/>
-      <c r="AM44" s="150"/>
-      <c r="AN44" s="150"/>
+      <c r="AJ44" s="148"/>
+      <c r="AK44" s="149"/>
+      <c r="AL44" s="149"/>
+      <c r="AM44" s="149"/>
+      <c r="AN44" s="149"/>
       <c r="AO44" s="150"/>
-      <c r="AP44" s="149"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A45" s="35"/>
@@ -8306,320 +8285,320 @@
     </row>
   </sheetData>
   <mergeCells count="314">
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="J41:P41"/>
+    <mergeCell ref="J42:P42"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="J44:P44"/>
+    <mergeCell ref="J35:P35"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="S42:X42"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="S39:X39"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="S25:X25"/>
+    <mergeCell ref="S26:X26"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="S24:X24"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="Y40:AF40"/>
+    <mergeCell ref="Y41:AF41"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="Y43:AF43"/>
+    <mergeCell ref="Y44:AF44"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="Y37:AF37"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="Y39:AF39"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="AG19:AI19"/>
+    <mergeCell ref="AJ40:AO40"/>
+    <mergeCell ref="AJ41:AO41"/>
+    <mergeCell ref="AJ42:AO42"/>
+    <mergeCell ref="AJ43:AO43"/>
+    <mergeCell ref="AJ44:AO44"/>
+    <mergeCell ref="AJ35:AO35"/>
+    <mergeCell ref="AJ36:AO36"/>
+    <mergeCell ref="AJ37:AO37"/>
+    <mergeCell ref="AJ38:AO38"/>
+    <mergeCell ref="AJ39:AO39"/>
+    <mergeCell ref="AJ30:AO30"/>
+    <mergeCell ref="AJ31:AO31"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AJ33:AO33"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AJ15:AO15"/>
+    <mergeCell ref="AJ16:AO16"/>
+    <mergeCell ref="AJ17:AO17"/>
+    <mergeCell ref="AJ18:AO18"/>
+    <mergeCell ref="AJ19:AO19"/>
+    <mergeCell ref="AJ20:AO20"/>
+    <mergeCell ref="AJ21:AO21"/>
+    <mergeCell ref="AJ22:AO22"/>
+    <mergeCell ref="AJ23:AO23"/>
+    <mergeCell ref="AJ24:AO24"/>
+    <mergeCell ref="AJ25:AO25"/>
+    <mergeCell ref="AJ26:AO26"/>
+    <mergeCell ref="AJ27:AO27"/>
+    <mergeCell ref="AJ28:AO28"/>
+    <mergeCell ref="AJ29:AO29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AO12"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AO11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AJ10:AO10"/>
+    <mergeCell ref="AJ9:AO9"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="Y9:AF9"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AK30:AP30"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AK32:AP32"/>
-    <mergeCell ref="AK33:AP33"/>
-    <mergeCell ref="AK34:AP34"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="AK17:AP17"/>
-    <mergeCell ref="AK18:AP18"/>
-    <mergeCell ref="AK19:AP19"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="AK22:AP22"/>
-    <mergeCell ref="AK23:AP23"/>
-    <mergeCell ref="AK24:AP24"/>
-    <mergeCell ref="AK25:AP25"/>
-    <mergeCell ref="AK26:AP26"/>
-    <mergeCell ref="AK27:AP27"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AK29:AP29"/>
-    <mergeCell ref="AK40:AP40"/>
-    <mergeCell ref="AK41:AP41"/>
-    <mergeCell ref="AK42:AP42"/>
-    <mergeCell ref="AK43:AP43"/>
-    <mergeCell ref="AK44:AP44"/>
-    <mergeCell ref="AK35:AP35"/>
-    <mergeCell ref="AK36:AP36"/>
-    <mergeCell ref="AK37:AP37"/>
-    <mergeCell ref="AK38:AP38"/>
-    <mergeCell ref="AK39:AP39"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="Z21:AG21"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="Z17:AG17"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="Z19:AG19"/>
-    <mergeCell ref="Z30:AG30"/>
-    <mergeCell ref="Z31:AG31"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="Z33:AG33"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="Z40:AG40"/>
-    <mergeCell ref="Z41:AG41"/>
-    <mergeCell ref="Z42:AG42"/>
-    <mergeCell ref="Z43:AG43"/>
-    <mergeCell ref="Z44:AG44"/>
-    <mergeCell ref="Z35:AG35"/>
-    <mergeCell ref="Z36:AG36"/>
-    <mergeCell ref="Z37:AG37"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="Z39:AG39"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:X8"/>
+    <mergeCell ref="Y7:AF8"/>
+    <mergeCell ref="AG7:AI8"/>
+    <mergeCell ref="AJ7:AO8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:I8"/>
+    <mergeCell ref="J7:P8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="AJ13:AO13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AJ14:AO14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:P13"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
